--- a/data/trans_dic/P37A$vacunaempresa-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P37A$vacunaempresa-Habitat-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.002822870376323176</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.02746695895209675</v>
+        <v>0.02746695895209676</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.00838737023719017</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.003989648167873903</v>
+        <v>0.003138410133393949</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.003186163494338189</v>
+        <v>0.002778876072743737</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.001565669971916073</v>
+        <v>0.001546786931599016</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.00577893472514074</v>
+        <v>0.005820491969632901</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.002766282944649474</v>
+        <v>0.00269912237954575</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.002089082427566905</v>
+        <v>0.001629363678643526</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01834103389076347</v>
+        <v>0.01789184794793255</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.004241695322052106</v>
+        <v>0.004197644012268151</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.003427622280188043</v>
+        <v>0.003728189869953951</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.002060575689624589</v>
+        <v>0.001525683713446636</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01413437459698956</v>
+        <v>0.01415968175682113</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02434096767785414</v>
+        <v>0.02168365190177568</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01990518536023713</v>
+        <v>0.02057645073643885</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01472415436570551</v>
+        <v>0.01503388114034297</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.02563052239242176</v>
+        <v>0.02634390224527241</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.01644700309517431</v>
+        <v>0.01562594017299927</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.01674204237060068</v>
+        <v>0.01583042729359696</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.009045367060928585</v>
+        <v>0.01100213808483363</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04056376265730911</v>
+        <v>0.04028214096723551</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01506837676358018</v>
+        <v>0.0157065952846312</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.01436840252033016</v>
+        <v>0.01508432280894828</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.008932158263851487</v>
+        <v>0.009605722482474622</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.0293092069138657</v>
+        <v>0.02970770327985852</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.006841295134675345</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.02653067584843298</v>
+        <v>0.02653067584843299</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.006565719549389975</v>
+        <v>0.006159975281422682</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.005883488686494978</v>
+        <v>0.005767973598515773</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.002663370066603644</v>
+        <v>0.002828393414541525</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01450646257513387</v>
+        <v>0.01448578636731125</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.002295256488838583</v>
+        <v>0.00304273252952258</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.004826210142002601</v>
+        <v>0.004758580992982822</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.002863356167260229</v>
+        <v>0.00278421462920606</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02185692750444907</v>
+        <v>0.02121626305418419</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.005389529085865035</v>
+        <v>0.005439613047677884</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.006820666233093274</v>
+        <v>0.006790615809421841</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.003810646829374635</v>
+        <v>0.003732431968125084</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02029972390767773</v>
+        <v>0.01995336383718182</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02156729571193913</v>
+        <v>0.01935197250373223</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02187187967855163</v>
+        <v>0.02131583127903704</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01436841193132201</v>
+        <v>0.01500655458728235</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03308253513132712</v>
+        <v>0.03410352644182513</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01357971298466423</v>
+        <v>0.0140317725569234</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.01829278251173832</v>
+        <v>0.01853148659823092</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01430827952363547</v>
+        <v>0.01484146707610342</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.04143784881684462</v>
+        <v>0.0415323559266252</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01386035096225371</v>
+        <v>0.0140170589073931</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.01702050117919723</v>
+        <v>0.0164493506162451</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01137568564022895</v>
+        <v>0.01113932883954803</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03379924545499587</v>
+        <v>0.03400118576839097</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.003706477839709112</v>
+        <v>0.003016179188822603</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.003990643745033311</v>
+        <v>0.004142769405829359</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01613454839874158</v>
+        <v>0.01577849092667222</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.001380550690558364</v>
+        <v>0.001369036948628698</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.005277785958911503</v>
+        <v>0.005576245444521373</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.001480275006883529</v>
+        <v>0.001264751432007705</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.0116934166446061</v>
+        <v>0.01170672015205948</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.003527956378779284</v>
+        <v>0.00336992844705737</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.006584900074657664</v>
+        <v>0.006188673327703223</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.00123198894311949</v>
+        <v>0.001286265881976976</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01635056304599105</v>
+        <v>0.01562198337346175</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01800211951259469</v>
+        <v>0.0167744980555342</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02258462548196245</v>
+        <v>0.02423422361314539</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.006696210761126044</v>
+        <v>0.007879258641115282</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04138091685460138</v>
+        <v>0.04152075159725795</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.01356048357440909</v>
+        <v>0.01382036168063114</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.02486927394898146</v>
+        <v>0.02631577745909613</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.01364290285409311</v>
+        <v>0.01190120586185852</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02930180518324877</v>
+        <v>0.02942827597257196</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0124346424788071</v>
+        <v>0.0120573703264322</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.01929334261662985</v>
+        <v>0.01865262483798847</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.007360822921002741</v>
+        <v>0.00770333401351691</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.03232149528120647</v>
+        <v>0.03099407030781536</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.004201839204084587</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.04099408637603077</v>
+        <v>0.04099408637603076</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.003059795736535152</v>
@@ -1093,7 +1093,7 @@
         <v>0.005414991103727451</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.04447225860780178</v>
+        <v>0.04447225860780179</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.007325993692137531</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.006374061879587749</v>
+        <v>0.006649004732628434</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01394194556649257</v>
+        <v>0.01421012017751588</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.001211849315726153</v>
+        <v>0.001202805124681608</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03015062183213312</v>
+        <v>0.03084011465318334</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0009434430061826858</v>
+        <v>0.0009437309128041937</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.002489866022732536</v>
+        <v>0.001828749126551852</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.002573034918688104</v>
+        <v>0.001919897216110722</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0348547450253859</v>
+        <v>0.034820117871796</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.004150822392461461</v>
+        <v>0.004100308238275637</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.009415281684766748</v>
+        <v>0.008997899215965765</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.002114199421318816</v>
+        <v>0.002016089409142205</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.03530523013078518</v>
+        <v>0.03510011224967259</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02083814602319622</v>
+        <v>0.02028319104623636</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0351294414025364</v>
+        <v>0.03432578642694218</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01236679975559015</v>
+        <v>0.01253172898702884</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0559966692594769</v>
+        <v>0.05666251344304592</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.00827789937653184</v>
+        <v>0.008667744589717337</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.01251284846075724</v>
+        <v>0.01386262009771436</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.01464257063325087</v>
+        <v>0.0127019094500502</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.05634411538129515</v>
+        <v>0.05648651664843529</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01181150419021673</v>
+        <v>0.01183393643080783</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.02046970149289361</v>
+        <v>0.020068825125243</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.00984059615209207</v>
+        <v>0.009275411865113659</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.05158359171782302</v>
+        <v>0.05214154714946916</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.005387293328426142</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.03141639788085809</v>
+        <v>0.03141639788085808</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.007924019240694658</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.007594317616826439</v>
+        <v>0.007463619510055118</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.009479855658274515</v>
+        <v>0.01017612477686063</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.002581546606531243</v>
+        <v>0.00257274394981068</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02182617622833618</v>
+        <v>0.02089193858226295</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.00317369465969739</v>
+        <v>0.003014961153749746</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.00552113992140069</v>
+        <v>0.005820480003748772</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.003212616409709543</v>
+        <v>0.003116080800937214</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0264766652214271</v>
+        <v>0.02630419478267618</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.005887068611229953</v>
+        <v>0.005955740122549959</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.008647745335796573</v>
+        <v>0.008733587091005673</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.003519637720701419</v>
+        <v>0.003460635128840184</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.0254306509351778</v>
+        <v>0.0254451684868279</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01511486307762316</v>
+        <v>0.01453702678998169</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01859677746036958</v>
+        <v>0.01826781225649443</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.007541432091562444</v>
+        <v>0.007808563648557921</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03299166697430309</v>
+        <v>0.03253311690448223</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.008026624939411697</v>
+        <v>0.008021465553214775</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.01286259987360573</v>
+        <v>0.01234640272933877</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.008438519214439343</v>
+        <v>0.008551481469107731</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03673404802342851</v>
+        <v>0.03633725390636475</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01047421677160122</v>
+        <v>0.01026938833028391</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.01395245868321009</v>
+        <v>0.01392751101228239</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.007106151588935737</v>
+        <v>0.006941142515357008</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.03298286601964585</v>
+        <v>0.03352493330990992</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2769</v>
+        <v>2178</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2241</v>
+        <v>1955</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1057</v>
+        <v>1044</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>3992</v>
+        <v>4020</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1904</v>
+        <v>1858</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1456</v>
+        <v>1136</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>13466</v>
+        <v>13136</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>5864</v>
+        <v>5803</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>4800</v>
+        <v>5221</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>2777</v>
+        <v>2056</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>20140</v>
+        <v>20176</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>16893</v>
+        <v>15049</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>14003</v>
+        <v>14475</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>9936</v>
+        <v>10145</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>17703</v>
+        <v>18196</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>11321</v>
+        <v>10756</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>11670</v>
+        <v>11035</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>6086</v>
+        <v>7403</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>29781</v>
+        <v>29574</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>20830</v>
+        <v>21712</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>20123</v>
+        <v>21126</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>12037</v>
+        <v>12945</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>41762</v>
+        <v>42330</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>6315</v>
+        <v>5925</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>5989</v>
+        <v>5871</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2723</v>
+        <v>2892</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>15216</v>
+        <v>15194</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>2223</v>
+        <v>2947</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>4982</v>
+        <v>4912</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>2986</v>
+        <v>2904</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>23419</v>
+        <v>22733</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>10403</v>
+        <v>10500</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>13983</v>
+        <v>13922</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>7870</v>
+        <v>7709</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>43043</v>
+        <v>42309</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>20743</v>
+        <v>18613</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>22264</v>
+        <v>21698</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>14691</v>
+        <v>15343</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>34701</v>
+        <v>35772</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>13150</v>
+        <v>13588</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>18882</v>
+        <v>19128</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>14922</v>
+        <v>15478</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>44400</v>
+        <v>44501</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>26753</v>
+        <v>27056</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>34894</v>
+        <v>33723</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>23495</v>
+        <v>23007</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>71668</v>
+        <v>72096</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2515</v>
+        <v>2047</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3023</v>
+        <v>3139</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>12957</v>
+        <v>12671</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>4102</v>
+        <v>4334</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1162</v>
+        <v>993</v>
       </c>
       <c r="J14" s="6" t="n">
+        <v>9509</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>4591</v>
+      </c>
+      <c r="L14" s="6" t="n">
         <v>9498</v>
       </c>
-      <c r="K14" s="6" t="n">
-        <v>4806</v>
-      </c>
-      <c r="L14" s="6" t="n">
-        <v>10106</v>
-      </c>
       <c r="M14" s="6" t="n">
-        <v>1903</v>
+        <v>1987</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>26412</v>
+        <v>25235</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>12215</v>
+        <v>11382</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>17111</v>
+        <v>18360</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>5086</v>
+        <v>5985</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>33232</v>
+        <v>33344</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>9273</v>
+        <v>9451</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>19328</v>
+        <v>20452</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>10710</v>
+        <v>9343</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>23801</v>
+        <v>23903</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>16940</v>
+        <v>16426</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>29611</v>
+        <v>28628</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>11369</v>
+        <v>11898</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>52210</v>
+        <v>50066</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>6006</v>
+        <v>6265</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>13213</v>
+        <v>13467</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1136</v>
+        <v>1128</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>29851</v>
+        <v>30534</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>980</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2619</v>
+        <v>1924</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2686</v>
+        <v>2004</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>39004</v>
+        <v>38965</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>8222</v>
+        <v>8122</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>18827</v>
+        <v>17993</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>4189</v>
+        <v>3995</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>74462</v>
+        <v>74030</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>19634</v>
+        <v>19111</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>33294</v>
+        <v>32532</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>11595</v>
+        <v>11749</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>55440</v>
+        <v>56099</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>8598</v>
+        <v>9002</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>13162</v>
+        <v>14582</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>15284</v>
+        <v>13258</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>63051</v>
+        <v>63211</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>23397</v>
+        <v>23441</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>40932</v>
+        <v>40130</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>19498</v>
+        <v>18378</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>108795</v>
+        <v>109972</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>24883</v>
+        <v>24455</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>32485</v>
+        <v>34871</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>8763</v>
+        <v>8733</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>77107</v>
+        <v>73806</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>10725</v>
+        <v>10188</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>19646</v>
+        <v>20711</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>11387</v>
+        <v>11045</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>98942</v>
+        <v>98298</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>39183</v>
+        <v>39640</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>60405</v>
+        <v>61005</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>24422</v>
+        <v>24013</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>184874</v>
+        <v>184979</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>49524</v>
+        <v>47631</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>63727</v>
+        <v>62600</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>25598</v>
+        <v>26505</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>116552</v>
+        <v>114932</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>27124</v>
+        <v>27106</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>45769</v>
+        <v>43932</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>29911</v>
+        <v>30311</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>137273</v>
+        <v>135791</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>69714</v>
+        <v>68350</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>97459</v>
+        <v>97285</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>49309</v>
+        <v>48164</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>239776</v>
+        <v>243717</v>
       </c>
     </row>
     <row r="24">
